--- a/Week_05/mybatis-hinernate.xlsx
+++ b/Week_05/mybatis-hinernate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>不能够反向生成数据库表结构</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>基本记录功能外，功能薄弱很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有中文文档，社区内中国开发者居多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档基本上是英语，社区人员外国人偏多</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,10 +129,16 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -149,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -172,23 +190,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -492,96 +648,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="56" style="1" customWidth="1"/>
     <col min="4" max="4" width="69.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="5" max="5" width="2.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="2:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="8" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
